--- a/data/pca/factorExposure/factorExposure_2013-02-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-19.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0005756108875378638</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001912436713178351</v>
+      </c>
+      <c r="C2">
+        <v>-0.03190147205302624</v>
+      </c>
+      <c r="D2">
+        <v>-0.005961962542987539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001695704883507225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006171767352277736</v>
+      </c>
+      <c r="C4">
+        <v>-0.08435250355666331</v>
+      </c>
+      <c r="D4">
+        <v>-0.07859418848771096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0002695548873982038</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01400001720035296</v>
+      </c>
+      <c r="C6">
+        <v>-0.1137290859721417</v>
+      </c>
+      <c r="D6">
+        <v>-0.03097795730264807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001476679168607069</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004991919569468144</v>
+      </c>
+      <c r="C7">
+        <v>-0.05742681109315644</v>
+      </c>
+      <c r="D7">
+        <v>-0.03519498785040382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0003266071267110062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005733124296019682</v>
+      </c>
+      <c r="C8">
+        <v>-0.03858339146317508</v>
+      </c>
+      <c r="D8">
+        <v>-0.0445600217322319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0037682573882936</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004355426500473293</v>
+      </c>
+      <c r="C9">
+        <v>-0.07050954932151395</v>
+      </c>
+      <c r="D9">
+        <v>-0.07108708475779865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004746354739028548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.00546332506830875</v>
+      </c>
+      <c r="C10">
+        <v>-0.05769530713883879</v>
+      </c>
+      <c r="D10">
+        <v>0.2016117705337122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002665092151524248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005755918745914488</v>
+      </c>
+      <c r="C11">
+        <v>-0.08119636160583334</v>
+      </c>
+      <c r="D11">
+        <v>-0.06066437730224575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0005723745803435743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004148012833249183</v>
+      </c>
+      <c r="C12">
+        <v>-0.06470306726089949</v>
+      </c>
+      <c r="D12">
+        <v>-0.04475420211216771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003346266984406855</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008675172683136011</v>
+      </c>
+      <c r="C13">
+        <v>-0.06654559848354444</v>
+      </c>
+      <c r="D13">
+        <v>-0.06351808042671618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001245707008601867</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001625919135844906</v>
+      </c>
+      <c r="C14">
+        <v>-0.04669284983924063</v>
+      </c>
+      <c r="D14">
+        <v>-0.006831457217900212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.000968915196822262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006017463957533744</v>
+      </c>
+      <c r="C15">
+        <v>-0.04271345112973239</v>
+      </c>
+      <c r="D15">
+        <v>-0.02761641875485652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001184468538880979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005089654956184885</v>
+      </c>
+      <c r="C16">
+        <v>-0.06628262912115279</v>
+      </c>
+      <c r="D16">
+        <v>-0.045347254932763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001683518865427433</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008831600357756811</v>
+      </c>
+      <c r="C20">
+        <v>-0.06607197400853466</v>
+      </c>
+      <c r="D20">
+        <v>-0.04432094828309813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00518100923290171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009992377839909247</v>
+      </c>
+      <c r="C21">
+        <v>-0.02286513279944993</v>
+      </c>
+      <c r="D21">
+        <v>-0.03599836396579657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01745120477159017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006510991926208099</v>
+      </c>
+      <c r="C22">
+        <v>-0.09649805821562212</v>
+      </c>
+      <c r="D22">
+        <v>-0.1004189784680266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01776171578587298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006329563035632594</v>
+      </c>
+      <c r="C23">
+        <v>-0.09730430650911275</v>
+      </c>
+      <c r="D23">
+        <v>-0.1006462577850906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001750428370905889</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.0053539929872891</v>
+      </c>
+      <c r="C24">
+        <v>-0.07623064534958726</v>
+      </c>
+      <c r="D24">
+        <v>-0.05938236801832276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003777991964823268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002913930464368443</v>
+      </c>
+      <c r="C25">
+        <v>-0.07819790510520669</v>
+      </c>
+      <c r="D25">
+        <v>-0.06439246869699337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005597946394018311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003592790085726777</v>
+      </c>
+      <c r="C26">
+        <v>-0.04157410094443903</v>
+      </c>
+      <c r="D26">
+        <v>-0.02404253040867005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.003983163316107685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009953804146927805</v>
+      </c>
+      <c r="C28">
+        <v>-0.1063098776872016</v>
+      </c>
+      <c r="D28">
+        <v>0.3179862077118792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001076581558870995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003146802508715426</v>
+      </c>
+      <c r="C29">
+        <v>-0.0494507332191052</v>
+      </c>
+      <c r="D29">
+        <v>-0.003612365009450345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003188705003300957</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009296547121549103</v>
+      </c>
+      <c r="C30">
+        <v>-0.1433693591844172</v>
+      </c>
+      <c r="D30">
+        <v>-0.1016101213734061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0008478680448998809</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006172900822107588</v>
+      </c>
+      <c r="C31">
+        <v>-0.04557641293048855</v>
+      </c>
+      <c r="D31">
+        <v>-0.03111753787801201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0004380249971481201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003938680296386642</v>
+      </c>
+      <c r="C32">
+        <v>-0.04199606923660045</v>
+      </c>
+      <c r="D32">
+        <v>-0.01843859101568872</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002662152757454865</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008152555954338272</v>
+      </c>
+      <c r="C33">
+        <v>-0.08691690764389243</v>
+      </c>
+      <c r="D33">
+        <v>-0.06746894716677956</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004285438749401565</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003951722944807408</v>
+      </c>
+      <c r="C34">
+        <v>-0.05779931384426133</v>
+      </c>
+      <c r="D34">
+        <v>-0.05116202592525243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002355068717721697</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005033230766395107</v>
+      </c>
+      <c r="C35">
+        <v>-0.04023239761177672</v>
+      </c>
+      <c r="D35">
+        <v>-0.01378283214056321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004074807703991581</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001290260851422859</v>
+      </c>
+      <c r="C36">
+        <v>-0.02442106956865036</v>
+      </c>
+      <c r="D36">
+        <v>-0.02232932233539553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002724072707071551</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009541077531840747</v>
+      </c>
+      <c r="C38">
+        <v>-0.03504238880917816</v>
+      </c>
+      <c r="D38">
+        <v>-0.01688709518478401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01184389263828882</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.000644801346927626</v>
+      </c>
+      <c r="C39">
+        <v>-0.1173445420305191</v>
+      </c>
+      <c r="D39">
+        <v>-0.07146035307379296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008916152567843156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002377583422890281</v>
+      </c>
+      <c r="C40">
+        <v>-0.08846607738947353</v>
+      </c>
+      <c r="D40">
+        <v>-0.01696096059145939</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003907641821837996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007301244865564461</v>
+      </c>
+      <c r="C41">
+        <v>-0.03822315801293202</v>
+      </c>
+      <c r="D41">
+        <v>-0.03520628909442086</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003121671720194071</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003817829743901835</v>
+      </c>
+      <c r="C43">
+        <v>-0.0527063136930744</v>
+      </c>
+      <c r="D43">
+        <v>-0.0240853925613888</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002556325533163509</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003167016072198746</v>
+      </c>
+      <c r="C44">
+        <v>-0.1103782925688772</v>
+      </c>
+      <c r="D44">
+        <v>-0.06954344017110382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001505158280780355</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002312533857210874</v>
+      </c>
+      <c r="C46">
+        <v>-0.03364386333075207</v>
+      </c>
+      <c r="D46">
+        <v>-0.03071158242298141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0004672372223784204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002660106417664901</v>
+      </c>
+      <c r="C47">
+        <v>-0.0373399475727685</v>
+      </c>
+      <c r="D47">
+        <v>-0.02328636148478847</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003738293859184342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006486092281267553</v>
+      </c>
+      <c r="C48">
+        <v>-0.02978059556038752</v>
+      </c>
+      <c r="D48">
+        <v>-0.03280411070466487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01278663214726917</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01519438189218537</v>
+      </c>
+      <c r="C49">
+        <v>-0.1824336906032548</v>
+      </c>
+      <c r="D49">
+        <v>-0.01051931352388592</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0003201827297851088</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003600741882761941</v>
+      </c>
+      <c r="C50">
+        <v>-0.04415647818331715</v>
+      </c>
+      <c r="D50">
+        <v>-0.03473057401774764</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0008928944382905712</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004458303304854734</v>
+      </c>
+      <c r="C51">
+        <v>-0.02687759139622943</v>
+      </c>
+      <c r="D51">
+        <v>-0.01949640064251211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008019377725227309</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02062809412929332</v>
+      </c>
+      <c r="C53">
+        <v>-0.1690804087002188</v>
+      </c>
+      <c r="D53">
+        <v>-0.03530788323725475</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001474173823194854</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.00866130435230341</v>
+      </c>
+      <c r="C54">
+        <v>-0.05522951885241219</v>
+      </c>
+      <c r="D54">
+        <v>-0.04188039738754946</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003905205284076729</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009490618350720485</v>
+      </c>
+      <c r="C55">
+        <v>-0.1096825221777197</v>
+      </c>
+      <c r="D55">
+        <v>-0.04374792104262862</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003423078172197898</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01993070176831355</v>
+      </c>
+      <c r="C56">
+        <v>-0.1745174134750583</v>
+      </c>
+      <c r="D56">
+        <v>-0.03396126291265349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006717769568189243</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01975460872902359</v>
+      </c>
+      <c r="C58">
+        <v>-0.1122886547654967</v>
+      </c>
+      <c r="D58">
+        <v>-0.04749403579036326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006232975729711792</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009465447435487113</v>
+      </c>
+      <c r="C59">
+        <v>-0.1608659932287506</v>
+      </c>
+      <c r="D59">
+        <v>0.3091760644621803</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003351889788776894</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02352143075213444</v>
+      </c>
+      <c r="C60">
+        <v>-0.2209058549393687</v>
+      </c>
+      <c r="D60">
+        <v>-0.02955006642187172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01385450883108079</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001770302860797719</v>
+      </c>
+      <c r="C61">
+        <v>-0.09584736015657841</v>
+      </c>
+      <c r="D61">
+        <v>-0.0569423995808292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1677981774642368</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1445154029893906</v>
+      </c>
+      <c r="C62">
+        <v>-0.0906361227983485</v>
+      </c>
+      <c r="D62">
+        <v>-0.051258619847901</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001139985740033971</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006231169202786207</v>
+      </c>
+      <c r="C63">
+        <v>-0.05594935301769999</v>
+      </c>
+      <c r="D63">
+        <v>-0.02370967962229527</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.001498842187662065</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01517848416465303</v>
+      </c>
+      <c r="C64">
+        <v>-0.1050223793174201</v>
+      </c>
+      <c r="D64">
+        <v>-0.05935967201570808</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0024867586782571</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01771586094483615</v>
+      </c>
+      <c r="C65">
+        <v>-0.1212658969665193</v>
+      </c>
+      <c r="D65">
+        <v>-0.0175898419800965</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007040574452803634</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01304763195350757</v>
+      </c>
+      <c r="C66">
+        <v>-0.1602612302573105</v>
+      </c>
+      <c r="D66">
+        <v>-0.1141718509734155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.004006271169414239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01568616870405922</v>
+      </c>
+      <c r="C67">
+        <v>-0.0659873632422092</v>
+      </c>
+      <c r="D67">
+        <v>-0.02493653279767208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005919369963514988</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005139193483090429</v>
+      </c>
+      <c r="C68">
+        <v>-0.08614447368723434</v>
+      </c>
+      <c r="D68">
+        <v>0.25606415763639</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002416369445054265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006081593168254768</v>
+      </c>
+      <c r="C69">
+        <v>-0.05032294822917388</v>
+      </c>
+      <c r="D69">
+        <v>-0.03920272152782475</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0003687112074270128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001855536605141105</v>
+      </c>
+      <c r="C70">
+        <v>-0.002745863963957055</v>
+      </c>
+      <c r="D70">
+        <v>-0.001617568442856964</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-6.089966104363064e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005838755605247578</v>
+      </c>
+      <c r="C71">
+        <v>-0.09641135004250168</v>
+      </c>
+      <c r="D71">
+        <v>0.305898461758846</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004382932531980282</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01594595704319064</v>
+      </c>
+      <c r="C72">
+        <v>-0.1534203549156058</v>
+      </c>
+      <c r="D72">
+        <v>-0.02221406003920076</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.0116690486299765</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02992646766130241</v>
+      </c>
+      <c r="C73">
+        <v>-0.2756073127341342</v>
+      </c>
+      <c r="D73">
+        <v>-0.04630239444368818</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004360718136030072</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001836693183024109</v>
+      </c>
+      <c r="C74">
+        <v>-0.1055720189443884</v>
+      </c>
+      <c r="D74">
+        <v>-0.03700861039898475</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002324054897402803</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01096489759961265</v>
+      </c>
+      <c r="C75">
+        <v>-0.1282046614266057</v>
+      </c>
+      <c r="D75">
+        <v>-0.02246691002462476</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009673463528635299</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02174917050239302</v>
+      </c>
+      <c r="C76">
+        <v>-0.1501077433971032</v>
+      </c>
+      <c r="D76">
+        <v>-0.06421737973469344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001033869951034044</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.0238012487815367</v>
+      </c>
+      <c r="C77">
+        <v>-0.1304779831550138</v>
+      </c>
+      <c r="D77">
+        <v>-0.06706121129377408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0009796123174497884</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01461531969829978</v>
+      </c>
+      <c r="C78">
+        <v>-0.09502233286817569</v>
+      </c>
+      <c r="D78">
+        <v>-0.06859055283868755</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02413210077135023</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03757620005354272</v>
+      </c>
+      <c r="C79">
+        <v>-0.1563339891200404</v>
+      </c>
+      <c r="D79">
+        <v>-0.03640736686474913</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005058892179719466</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01061893378135969</v>
+      </c>
+      <c r="C80">
+        <v>-0.04307084579717527</v>
+      </c>
+      <c r="D80">
+        <v>-0.02822418321580169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001307971889318326</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01515368732241455</v>
+      </c>
+      <c r="C81">
+        <v>-0.1271178865271037</v>
+      </c>
+      <c r="D81">
+        <v>-0.04140131736719629</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005981035549092606</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01989371096314853</v>
+      </c>
+      <c r="C82">
+        <v>-0.1423209021662575</v>
+      </c>
+      <c r="D82">
+        <v>-0.04318070462497452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009320786390172472</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01012327353150196</v>
+      </c>
+      <c r="C83">
+        <v>-0.05733266877238656</v>
+      </c>
+      <c r="D83">
+        <v>-0.05505478997465023</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01366480539386993</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01175117446312661</v>
+      </c>
+      <c r="C84">
+        <v>-0.03651277198993889</v>
+      </c>
+      <c r="D84">
+        <v>0.007944663631173006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01462803332079584</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02812082192007779</v>
+      </c>
+      <c r="C85">
+        <v>-0.1265659442734364</v>
+      </c>
+      <c r="D85">
+        <v>-0.04775173718242924</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0005923565382951924</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005674426889101024</v>
+      </c>
+      <c r="C86">
+        <v>-0.04996264616192219</v>
+      </c>
+      <c r="D86">
+        <v>-0.02507282528116185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003928086153011</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01034280426363988</v>
+      </c>
+      <c r="C87">
+        <v>-0.1326861359882281</v>
+      </c>
+      <c r="D87">
+        <v>-0.06700083750780794</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01239468770028852</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002816441372859476</v>
+      </c>
+      <c r="C88">
+        <v>-0.06782525876422905</v>
+      </c>
+      <c r="D88">
+        <v>-0.01316415219930281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.0139906911016415</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001491963061398497</v>
+      </c>
+      <c r="C89">
+        <v>-0.1454935213158015</v>
+      </c>
+      <c r="D89">
+        <v>0.3410183103108392</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001965347761876655</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006672688828866716</v>
+      </c>
+      <c r="C90">
+        <v>-0.1206137909244084</v>
+      </c>
+      <c r="D90">
+        <v>0.3276486606816384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001316411573492347</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01050928201680354</v>
+      </c>
+      <c r="C91">
+        <v>-0.1033472150428833</v>
+      </c>
+      <c r="D91">
+        <v>-0.02305857400223485</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007875710798123551</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006500615884322529</v>
+      </c>
+      <c r="C92">
+        <v>-0.1358400890675096</v>
+      </c>
+      <c r="D92">
+        <v>0.3320543713980239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0002038044302583337</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.00475579413027434</v>
+      </c>
+      <c r="C93">
+        <v>-0.1048469581995549</v>
+      </c>
+      <c r="D93">
+        <v>0.3088520678266917</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004197250017129718</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02253034144456895</v>
+      </c>
+      <c r="C94">
+        <v>-0.1501248943734988</v>
+      </c>
+      <c r="D94">
+        <v>-0.05057960854469117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004703920226787363</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01648716738807206</v>
+      </c>
+      <c r="C95">
+        <v>-0.1261934978430302</v>
+      </c>
+      <c r="D95">
+        <v>-0.05531413401806659</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001583494097969862</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03569078712170239</v>
+      </c>
+      <c r="C97">
+        <v>-0.2104560670924372</v>
+      </c>
+      <c r="D97">
+        <v>0.008663193695635198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003644444470771969</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0365343898867794</v>
+      </c>
+      <c r="C98">
+        <v>-0.2450046230115804</v>
+      </c>
+      <c r="D98">
+        <v>-0.04946461768286322</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9839980482093936</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9823365943268104</v>
+      </c>
+      <c r="C99">
+        <v>0.1152174411924845</v>
+      </c>
+      <c r="D99">
+        <v>0.02837794409246326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009817380715410899</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003182639013813712</v>
+      </c>
+      <c r="C101">
+        <v>-0.0496378599020005</v>
+      </c>
+      <c r="D101">
+        <v>-0.003682808335333885</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
